--- a/results/pvalue_SIDER_all_Chem_AUPR.xlsx
+++ b/results/pvalue_SIDER_all_Chem_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.029</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.076</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.434</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>35.665</t>
+          <t>3.352</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>35.681</t>
+          <t>2.379</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35.045</t>
+          <t>0.868</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31.835</t>
+          <t>-13.814</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.482</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.773</t>
+          <t>102.216</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
